--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kento\Desktop\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70A36239-3CAF-4F80-A4F0-380310750409}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6756840E-2490-4CDE-9007-52E6001F2819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -347,7 +347,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A7" sqref="A7"/>
+      <selection activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -374,7 +374,7 @@
     </row>
     <row r="5" spans="1:1">
       <c r="A5">
-        <v>5</v>
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kento\Desktop\tutorial\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kento\Desktop\tutorial2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6756840E-2490-4CDE-9007-52E6001F2819}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8D4AA4-AD7A-493A-AC27-DC4065869D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -22,6 +22,15 @@
     </ext>
   </extLst>
 </workbook>
+</file>
+
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+  <si>
+    <t>test</t>
+    <phoneticPr fontId="1"/>
+  </si>
+</sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -347,7 +356,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+      <selection activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -373,8 +382,8 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5">
-        <v>7</v>
+      <c r="A5" t="s">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kento\Desktop\tutorial2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kento\Desktop\tutorial\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8D4AA4-AD7A-493A-AC27-DC4065869D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{87525FF0-5FEA-4C7F-9914-B28F8D721CE4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,12 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
-  <si>
-    <t>test</t>
-    <phoneticPr fontId="1"/>
-  </si>
-</sst>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
@@ -356,7 +351,7 @@
   <dimension ref="A1:A5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -382,8 +377,8 @@
       </c>
     </row>
     <row r="5" spans="1:1">
-      <c r="A5" t="s">
-        <v>0</v>
+      <c r="A5">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/test.xlsx
+++ b/test.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Kento\Desktop\tutorial2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB8D4AA4-AD7A-493A-AC27-DC4065869D2B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{81DBE811-DF91-4C8C-92D4-67125AE2B1AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -353,10 +353,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A5"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A5" sqref="A5"/>
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="18"/>
@@ -386,6 +386,26 @@
         <v>0</v>
       </c>
     </row>
+    <row r="6" spans="1:1">
+      <c r="A6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:1">
+      <c r="A7">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:1">
+      <c r="A8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:1">
+      <c r="A9">
+        <v>9</v>
+      </c>
+    </row>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
